--- a/sch_simulation/data/SCH_params/sch_coverage_scenario_2.xlsx
+++ b/sch_simulation/data/SCH_params/sch_coverage_scenario_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Documents/GitHub/sch/ntd-model-sch/sch_simulation/data/SCH_params/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53AC0AB8-6FDB-E144-A038-9ACD7D58702E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EC83A2F-FA10-F44E-AF9F-08E02F08F4D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19200" xr2:uid="{2B23B0C0-4BFB-41FB-ACE5-EE30D4858695}"/>
   </bookViews>
@@ -450,8 +450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BC57624-070C-4C6C-8EF3-3B0C0B08BDC6}">
   <dimension ref="A1:AD7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="166" zoomScaleNormal="166" workbookViewId="0">
-      <selection activeCell="AD2" sqref="AD2"/>
+    <sheetView tabSelected="1" zoomScale="166" zoomScaleNormal="166" workbookViewId="0">
+      <selection activeCell="AD3" sqref="AD3:AD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -575,19 +575,19 @@
         <v>14</v>
       </c>
       <c r="H2">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="J2">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="L2">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="N2">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="P2">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="R2">
         <v>0.8</v>
@@ -630,6 +630,27 @@
       <c r="G3">
         <v>49</v>
       </c>
+      <c r="R3">
+        <v>0.5</v>
+      </c>
+      <c r="T3">
+        <v>0.5</v>
+      </c>
+      <c r="V3">
+        <v>0.5</v>
+      </c>
+      <c r="X3">
+        <v>0.5</v>
+      </c>
+      <c r="Z3">
+        <v>0.5</v>
+      </c>
+      <c r="AB3">
+        <v>0.5</v>
+      </c>
+      <c r="AD3">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -649,6 +670,27 @@
       </c>
       <c r="G4">
         <v>65</v>
+      </c>
+      <c r="R4">
+        <v>0.5</v>
+      </c>
+      <c r="T4">
+        <v>0.5</v>
+      </c>
+      <c r="V4">
+        <v>0.5</v>
+      </c>
+      <c r="X4">
+        <v>0.5</v>
+      </c>
+      <c r="Z4">
+        <v>0.5</v>
+      </c>
+      <c r="AB4">
+        <v>0.5</v>
+      </c>
+      <c r="AD4">
+        <v>0.5</v>
       </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.2">
@@ -1189,18 +1231,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1223,18 +1265,18 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6338434B-B586-489B-A269-E3728BE15AC4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5E0411F9-2A1E-4488-925A-5AD296329D24}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6338434B-B586-489B-A269-E3728BE15AC4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>